--- a/financial_files/excel/ACEYY.xlsx
+++ b/financial_files/excel/ACEYY.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_data_scraped" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="financial_data" displayName="financial_data" ref="A1:O116" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="financial_data" displayName="financial_data_scraped" ref="A1:O116" headerRowCount="1">
   <autoFilter ref="A1:O116"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Category"/>

--- a/financial_files/excel/ACEYY.xlsx
+++ b/financial_files/excel/ACEYY.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_data_scraped" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_statement_api" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="rule1_results" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -156,6 +158,40 @@
     <tableColumn id="13" name="2017"/>
     <tableColumn id="14" name="2018"/>
     <tableColumn id="15" name="TTM"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="financial_statement_api" displayName="financial_statement_api" ref="A1:N23" headerRowCount="1">
+  <autoFilter ref="A1:N23"/>
+  <tableColumns count="14">
+    <tableColumn id="1" name="API Parameter"/>
+    <tableColumn id="2" name="2006"/>
+    <tableColumn id="3" name="2007"/>
+    <tableColumn id="4" name="2008"/>
+    <tableColumn id="5" name="2009"/>
+    <tableColumn id="6" name="2010"/>
+    <tableColumn id="7" name="2011"/>
+    <tableColumn id="8" name="2012"/>
+    <tableColumn id="9" name="2013"/>
+    <tableColumn id="10" name="2014"/>
+    <tableColumn id="11" name="2015"/>
+    <tableColumn id="12" name="2016"/>
+    <tableColumn id="13" name="2017"/>
+    <tableColumn id="14" name="2018"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="rule1_results" displayName="rule1_results" ref="A1:B55" headerRowCount="1">
+  <autoFilter ref="A1:B55"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Rule #1 Metric"/>
+    <tableColumn id="2" name="Value"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6848,4 +6884,1745 @@
     <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>API Parameter</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>revenue</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>10790531135.1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>14256238680.7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16476123569.2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>17800171308.6</v>
+      </c>
+      <c r="F2" t="n">
+        <v>21037776592.4</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15710752483.4</v>
+      </c>
+      <c r="H2" t="n">
+        <v>14792032639.6</v>
+      </c>
+      <c r="I2" t="n">
+        <v>12116152715.2</v>
+      </c>
+      <c r="J2" t="n">
+        <v>10515607379.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>8044256781</v>
+      </c>
+      <c r="L2" t="n">
+        <v>7272516398</v>
+      </c>
+      <c r="M2" t="n">
+        <v>7921176551.1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>7870470791</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>operating_income</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>198927948</v>
+      </c>
+      <c r="C3" t="n">
+        <v>314244110</v>
+      </c>
+      <c r="D3" t="n">
+        <v>417739771</v>
+      </c>
+      <c r="E3" t="n">
+        <v>451196834</v>
+      </c>
+      <c r="F3" t="n">
+        <v>596150514</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-214213715</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-88058565</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-723258891</v>
+      </c>
+      <c r="J3" t="n">
+        <v>86363665</v>
+      </c>
+      <c r="K3" t="n">
+        <v>28624388</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-161614068</v>
+      </c>
+      <c r="M3" t="n">
+        <v>119756764</v>
+      </c>
+      <c r="N3" t="n">
+        <v>121449701</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pretax_income</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>416723528</v>
+      </c>
+      <c r="C4" t="n">
+        <v>466150502</v>
+      </c>
+      <c r="D4" t="n">
+        <v>446584337</v>
+      </c>
+      <c r="E4" t="n">
+        <v>464647691</v>
+      </c>
+      <c r="F4" t="n">
+        <v>646437524</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-245428340</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-78186885</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-708660747</v>
+      </c>
+      <c r="J4" t="n">
+        <v>83389491</v>
+      </c>
+      <c r="K4" t="n">
+        <v>25817142</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-147632849</v>
+      </c>
+      <c r="M4" t="n">
+        <v>114811864</v>
+      </c>
+      <c r="N4" t="n">
+        <v>138144122</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>income_tax</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-104206726</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-82241735</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-95593370</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-112576265</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-140837786</v>
+      </c>
+      <c r="G5" t="n">
+        <v>27187087</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-6543717</v>
+      </c>
+      <c r="I5" t="n">
+        <v>18315160</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-26277035</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-7403424</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-5512882</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-21445826</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-43870158</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>eps_diluted</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-1.25</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>shares_diluted</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>491308000</v>
+      </c>
+      <c r="C7" t="n">
+        <v>491308000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>517430000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>540544000</v>
+      </c>
+      <c r="F7" t="n">
+        <v>555705000</v>
+      </c>
+      <c r="G7" t="n">
+        <v>531511000</v>
+      </c>
+      <c r="H7" t="n">
+        <v>551371000</v>
+      </c>
+      <c r="I7" t="n">
+        <v>551323000</v>
+      </c>
+      <c r="J7" t="n">
+        <v>592285000</v>
+      </c>
+      <c r="K7" t="n">
+        <v>606489000</v>
+      </c>
+      <c r="L7" t="n">
+        <v>605255000</v>
+      </c>
+      <c r="M7" t="n">
+        <v>607340000</v>
+      </c>
+      <c r="N7" t="n">
+        <v>607689000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>total_assets</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5797957584</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7506080928</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7342438660</v>
+      </c>
+      <c r="E8" t="n">
+        <v>9025168719</v>
+      </c>
+      <c r="F8" t="n">
+        <v>9380782505</v>
+      </c>
+      <c r="G8" t="n">
+        <v>8192101518</v>
+      </c>
+      <c r="H8" t="n">
+        <v>7792048339</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6409103632.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>6095166066</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5237559750</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5177233543</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5261739338</v>
+      </c>
+      <c r="N8" t="n">
+        <v>5002547251</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>st_debt</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>235533734</v>
+      </c>
+      <c r="C9" t="n">
+        <v>166282800</v>
+      </c>
+      <c r="D9" t="n">
+        <v>281607908</v>
+      </c>
+      <c r="E9" t="n">
+        <v>16996238</v>
+      </c>
+      <c r="F9" t="n">
+        <v>259239701</v>
+      </c>
+      <c r="G9" t="n">
+        <v>11838482</v>
+      </c>
+      <c r="H9" t="n">
+        <v>486617535</v>
+      </c>
+      <c r="I9" t="n">
+        <v>73679201</v>
+      </c>
+      <c r="J9" t="n">
+        <v>240872738</v>
+      </c>
+      <c r="K9" t="n">
+        <v>315664841</v>
+      </c>
+      <c r="L9" t="n">
+        <v>190715770</v>
+      </c>
+      <c r="M9" t="n">
+        <v>106322989</v>
+      </c>
+      <c r="N9" t="n">
+        <v>21478386</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>lt_debt</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5186687</v>
+      </c>
+      <c r="C10" t="n">
+        <v>518053036</v>
+      </c>
+      <c r="D10" t="n">
+        <v>124712943</v>
+      </c>
+      <c r="E10" t="n">
+        <v>383672218</v>
+      </c>
+      <c r="F10" t="n">
+        <v>646318232</v>
+      </c>
+      <c r="G10" t="n">
+        <v>745399348</v>
+      </c>
+      <c r="H10" t="n">
+        <v>135946702</v>
+      </c>
+      <c r="I10" t="n">
+        <v>544169489</v>
+      </c>
+      <c r="J10" t="n">
+        <v>302387957</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>110183745</v>
+      </c>
+      <c r="N10" t="n">
+        <v>107723814</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>total_equity</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2323970994</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2388318775</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2499664158</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2880293680</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3147289892</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2479930877</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2554838954</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1892500832</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1933849304</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2008359158.9</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1802424274</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1935448964</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1916246597</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>cf_cfo</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>407083432</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-202421208</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-155824765</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1184401861</v>
+      </c>
+      <c r="F12" t="n">
+        <v>442718635</v>
+      </c>
+      <c r="G12" t="n">
+        <v>199991702</v>
+      </c>
+      <c r="H12" t="n">
+        <v>39285165</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-291050589</v>
+      </c>
+      <c r="J12" t="n">
+        <v>179370277</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-26396883</v>
+      </c>
+      <c r="L12" t="n">
+        <v>258484242</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-250806489</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-69265452</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>cfi_ppe_net</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-38836350</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-60539407</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-31164422</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-110324785</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-244976623</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-40640419</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-34187952</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-19145653</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-10609404</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-10081700</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-5304292</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-10724265</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-14574591</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>roic</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.3027</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.1745</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.1977</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.3261</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-0.1421</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-0.062</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-0.5567</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0586</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.0201</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-0.2052</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.1191</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.09080000000000001</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>revenue_growth</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.3211</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.1557</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0803</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.1818</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.2532</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-0.0584</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-0.1809</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-0.1321</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-0.235</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-0.0959</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.0891</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.0064</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>eps_diluted_growth</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2724</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.1587</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.049</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.4133</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-1.4472</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.628</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-7.1864</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.0802</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-0.6964</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-9.299899999999999</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.6132</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.0568</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>total_equity_growth</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0276</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0466</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.1522</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0926</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-0.212</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.0302</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-0.2592</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0218</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.0385</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-0.1025</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.0738</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.009900000000000001</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>cfo_growth</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-1.4972</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.2301</v>
+      </c>
+      <c r="E18" t="n">
+        <v>8.6008</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.6262</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.5482</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.8035</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-8.4086</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.6162</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-1.1471</v>
+      </c>
+      <c r="L18" t="n">
+        <v>10.7922</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-1.9702</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.7238</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>fcf_growth</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-1.714</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.2889</v>
+      </c>
+      <c r="E19" t="n">
+        <v>6.744</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.8158</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-0.1941</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-0.968</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-61.856</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.544</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-1.2161</v>
+      </c>
+      <c r="L19" t="n">
+        <v>7.9405</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-2.0329</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.6794</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>fcf</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>368247081.8015</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-262960615.8311</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-186989187.3144</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1074077076.463</v>
+      </c>
+      <c r="F20" t="n">
+        <v>197742012.08</v>
+      </c>
+      <c r="G20" t="n">
+        <v>159351283.4494</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5097212.8975</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-310196243.351</v>
+      </c>
+      <c r="J20" t="n">
+        <v>168760872.5463</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-36478583.7361</v>
+      </c>
+      <c r="L20" t="n">
+        <v>253179950.31356</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-261530754.9785</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-83840043.9215</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>book_value_per_share</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>4.7301</v>
+      </c>
+      <c r="C21" t="n">
+        <v>4.8611</v>
+      </c>
+      <c r="D21" t="n">
+        <v>4.8309</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5.3285</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5.6635</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4.6658</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4.6336</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.4326</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.265</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.3114</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2.9779</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3.1867</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3.1533</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>market_cap</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1686368000</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2247720000</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1142448300</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1222625200</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1234098800</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2271150000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>price_to_earnings</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-2.4427</v>
+      </c>
+      <c r="J23" t="n">
+        <v>39.3537</v>
+      </c>
+      <c r="K23" t="n">
+        <v>62.0551</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-7.9841</v>
+      </c>
+      <c r="M23" t="n">
+        <v>13.1293</v>
+      </c>
+      <c r="N23" t="n">
+        <v>22.8435</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Rule #1 Metric</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ROIC - 10-year</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>-1.46%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ROIC - 5-year</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.69%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ROIC - 3-year</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.06%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ROIC - 1-year</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4.05%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 10-year</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-1.54%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 5-year</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1.67%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 3-year</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0.16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 1-year</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>9.08%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-4.18%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-1.68%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>-1.62%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>-1.05%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>-13.47%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>102.44%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>74.72%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>6.67%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>-7.12%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>-8.27%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>-0.73%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>-0.64%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>7.71%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>23.02%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>-31.97%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>67.94%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>7.79%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>24.96%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>-37.93%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>72.38%</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Debt - Current Long-Term Debt</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>107723814</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Debt - Payoff Possible</t>
+        </is>
+      </c>
+      <c r="B31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>current_eps</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>analyst_growth_rate</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>equity_growth_rate</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.02131192789947753</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>eps_growth_rate</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.02131192789947753</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>future_eps</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.1289920473558041</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>average_historical_pe</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>12.69548</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>default_pe</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>-4.262385579895506</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>future_pe</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>-4.262385579895506</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>future_market_price</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>-0.5498138425705777</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>sticker_price</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.1359055730975421</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>margin_of_safety</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>-0.06795278654877104</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>shortName</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ACER INC</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>symbol</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ACEYY</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>currency</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>market</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>us_market</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>exchange</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>PNK</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>sector</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>industry</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>website</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>http://www.acer-group.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>marketCap</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>2606481152</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>forwardPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>previousClose</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>4.26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>